--- a/biology/Botanique/Allamanda/Allamanda.xlsx
+++ b/biology/Botanique/Allamanda/Allamanda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allamanda est un genre de plante à fleurs de la famille des Apocynacées. Ce sont des arbustes originaires d'Amérique Centrale et d'Amérique du Sud, aux feuilles verticillées ou opposées, persistantes. Les fleurs infundibuliformes (en forme d'entonnoir) peuvent être jaunes, mauves, violacées, rose-orangé à blanc-crème.
 L'origine du nom Allamanda vient du botaniste suisse Dr. Frédéric-Louis Allamand (1735-1803).
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 décembre 2019) :
 Allamanda angustifolia Pohl (1827)
 Allamanda blanchetii A.DC. (1844)
 Allamanda calcicola Souza-Silva &amp; Rapini (2009)
@@ -530,7 +544,7 @@
 Allamanda setulosa Miq. (1845)
 Allamanda thevetifolia Müll.Arg. (1860)
 Allamanda weberbaueri Markgr. (1924)
-Selon Tropicos                                           (4 décembre 2019)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 décembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Allamanda angustifolia Pohl
 Allamanda aubletii Pohl
 Allamanda blanchetii A. DC.
